--- a/result_data/emails_csv_result.xlsx
+++ b/result_data/emails_csv_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="200">
   <si>
     <t>subject</t>
   </si>
@@ -399,7 +399,7 @@
   </si>
   <si>
     <t xml:space="preserve">{
-  "classification": "Market Manipulation",
+  "classification": "Secrecy/Leaks",
   "risk_score": 93,
   "risk_level": "High",
   "highlighted_evidence": "avoid highlighting the concentration risk until after the rebalance is complete",
@@ -738,6 +738,9 @@
     <t>Complaints</t>
   </si>
   <si>
+    <t>Ethics/Conduct</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -759,7 +762,7 @@
     <t>Please keep this limited to our discussion until legal finalizes the language. No external sharing yet.</t>
   </si>
   <si>
-    <t>We’ll normalize it next cycle, so no need to flag this formally.</t>
+    <t>I need a short-term adjustment processed today. We’ll normalize it next cycle, so no need to flag this formally.</t>
   </si>
   <si>
     <t>Thanks for helping move this along discreetly. No need to involve anyone else.</t>
@@ -771,16 +774,16 @@
     <t>Please review the attached summary and flag any discrepancies by EOD Friday.</t>
   </si>
   <si>
-    <t>we may want to soften the exposure language until after positions settle.</t>
-  </si>
-  <si>
-    <t>Before the research note is released today, can we slightly temper the downside language? Internally we understand the exposure, but highlighting it publicly before close could cause unnecessary volatility. Let’s align offline before distribution.</t>
-  </si>
-  <si>
-    <t>Please keep this restricted for now until leadership signs off, as assumptions may still change.</t>
-  </si>
-  <si>
-    <t>we can revisit the incentive arrangement we spoke about. Appreciate you helping move this forward quietly. No need to involve others at this stage.</t>
+    <t>we may want to soften the exposure language until after positions settle</t>
+  </si>
+  <si>
+    <t>highlighting it publicly before close could cause unnecessary volatility. Let’s align offline before distribution.</t>
+  </si>
+  <si>
+    <t>Please keep this restricted for now until leadership signs off, as assumptions may still change. No external circulation yet.</t>
+  </si>
+  <si>
+    <t>Appreciate you helping move this forward quietly. No need to involve others at this stage.</t>
   </si>
   <si>
     <t>I don’t think this needs to be formally logged yet — let’s see how the next billing cycle goes.</t>
@@ -795,7 +798,7 @@
     <t>Please avoid downloading or sharing copies locally until this is finalized.</t>
   </si>
   <si>
-    <t>Internally we know the exposure is higher, but flagging that before close could trigger unnecessary volatility.</t>
+    <t>Internally we know the exposure is higher, but flagging that before close could trigger unnecessary volatility. Let’s align offline before distribution.</t>
   </si>
   <si>
     <t>Please keep this restricted to our conversation until leadership signs off, as assumptions may still change. No forwarding for now.</t>
@@ -807,6 +810,9 @@
     <t>I don’t think we need to log these formally yet — let’s wait and see how next month looks.</t>
   </si>
   <si>
+    <t>I need a temporary adjustment posted today. We’ll reverse it next cycle, so there’s no need to raise this formally.</t>
+  </si>
+  <si>
     <t>Please avoid downloading or sharing copies until this transaction is completed.</t>
   </si>
   <si>
@@ -834,193 +840,193 @@
     <t>There will be opportunities later this year to recognize contributions like this appropriately.</t>
   </si>
   <si>
-    <t>The phrase suggests an intentional delay in disclosing critical risk information, which could be seen as an attempt to obscure transparency. This aligns with patterns of secrecy observed in past violations.</t>
-  </si>
-  <si>
-    <t>The phrase 'aligning your incentives with the broader performance outcome' suggests potential bribery or undue influence, and 'Happy to chat offline' indicates an attempt to avoid transparency. Such language aligns with patterns of bribery and secrecy observed in past violations.</t>
-  </si>
-  <si>
-    <t>The email suggests delaying the distribution of an update to avoid market impact due to thin liquidity, which could be seen as an attempt to manipulate market conditions. This aligns with patterns of market manipulation where timing and information control are used to influence market reactions.</t>
-  </si>
-  <si>
-    <t>The email explicitly instructs to limit the sharing of the draft term sheet and prohibits external sharing, indicating an attempt to maintain secrecy. This could be a potential violation if the information is sensitive or confidential.</t>
-  </si>
-  <si>
-    <t>The email contains language suggesting an attempt to bypass formal documentation ('no need to flag this formally') and secrecy ('I’ll explain in person'), which aligns with patterns of concealment or leaks in financial operations.</t>
-  </si>
-  <si>
-    <t>The email uses language indicating secrecy ('discreetly', 'No need to involve anyone else') which suggests an attempt to conceal the transaction. This aligns with patterns of secrecy observed in past violations.</t>
-  </si>
-  <si>
-    <t>The email discusses client feedback but does not indicate any fraudulent or unethical behavior. The decision to not formally document the feedback at this stage does not violate any compliance rules.</t>
-  </si>
-  <si>
-    <t>The email is a routine communication about monthly reconciliation and does not contain any suspicious language, urgency, or indicators of fraud.</t>
-  </si>
-  <si>
-    <t>The email suggests delaying or altering the exposure language until after positions settle, which could indicate an attempt to obscure or manipulate information. This aligns with patterns of secrecy or leaks.</t>
-  </si>
-  <si>
-    <t>The email suggests altering the language of a research note to downplay potential risks, which could mislead investors. The phrase 'highlighting it publicly before close could cause unnecessary volatility' indicates an intent to manipulate market perception. Additionally, the request to 'align offline' suggests secrecy, which raises compliance concerns.</t>
-  </si>
-  <si>
-    <t>The email contains instructions to restrict the circulation of a financial model, indicating a potential attempt to control sensitive information. The phrase 'No external circulation yet' further emphasizes secrecy, which could lead to unauthorized information leaks.</t>
-  </si>
-  <si>
-    <t>The email suggests a potential bribery arrangement ('incentive arrangement') and emphasizes secrecy ('move this forward quietly', 'No need to involve others'). These are strong indicators of unethical conduct and align with patterns of bribery and secrecy in past violations.</t>
-  </si>
-  <si>
-    <t>The email discusses client complaints about pricing transparency but suggests delaying formal logging of the issue. While this may indicate a lack of immediate action, it does not strongly suggest fraudulent intent or a violation.</t>
-  </si>
-  <si>
-    <t>The email suggests bypassing formal procedures for a financial adjustment, which indicates secrecy and potential manipulation. The phrase 'We’ll reverse it next cycle, so there’s no need to raise this formally' implies intent to avoid scrutiny.</t>
-  </si>
-  <si>
-    <t>The email discusses routine financial planning and sharing of forecasts with senior management, which does not indicate any fraudulent activity or violation.</t>
-  </si>
-  <si>
-    <t>The email instructs the recipient to avoid downloading or sharing copies locally, which suggests an attempt to limit traceability or visibility of the information. This aligns with patterns of secrecy and potential data leaks.</t>
-  </si>
-  <si>
-    <t>The email suggests altering the language of an analyst note to downplay the downside exposure, which could mislead stakeholders and manipulate market perception. The phrase 'Let’s align offline before distribution' indicates an attempt to avoid transparency, further increasing the risk of market manipulation.</t>
-  </si>
-  <si>
-    <t>The email contains explicit instructions to restrict sharing and avoid forwarding, indicating an attempt to control information flow and maintain secrecy. This aligns with patterns of secrecy observed in past violations.</t>
-  </si>
-  <si>
-    <t>The email contains explicit instructions to avoid documentation and mentions moving the deal 'quietly', which indicates an attempt to conceal actions. This aligns with patterns of secrecy and leaks observed in past violations.</t>
-  </si>
-  <si>
-    <t>The email discusses complaints about fee transparency but suggests delaying formal logging, which could be seen as a lack of proactive response. However, there is no indication of fraud or unethical behavior.</t>
-  </si>
-  <si>
-    <t>The email suggests bypassing formal procedures for a financial adjustment, which indicates an attempt to conceal the transaction. The phrase 'We’ll reverse it next cycle' implies a temporary manipulation, and 'no need to raise this formally' highlights secrecy.</t>
-  </si>
-  <si>
-    <t>The email explicitly instructs the recipient to avoid downloading or sharing restricted valuation files, indicating an attempt to maintain secrecy around sensitive information. This aligns with patterns of secrecy observed in past violations.</t>
-  </si>
-  <si>
-    <t>The phrase 'soften the exposure section until positions settle' suggests an attempt to manipulate or obscure information until a favorable condition is achieved. This aligns with secrecy or leaks concerns, as it implies withholding or altering information for internal advantage.</t>
-  </si>
-  <si>
-    <t>The email is a routine communication about monthly financial reconciliation and does not contain any suspicious language or indicators of fraud.</t>
-  </si>
-  <si>
-    <t>The phrase suggests withholding critical information ('concentration risk') until a specific action ('rebalance') is completed, which could indicate an attempt to manipulate or delay transparency. This aligns with secrecy-related behavior.</t>
-  </si>
-  <si>
-    <t>The phrase 'aligning your incentives with the broader performance outcome' suggests potential bribery or undue influence, and 'Happy to chat offline' indicates an attempt to avoid transparency. Such language aligns with patterns of bribery and secrecy in past violations.</t>
-  </si>
-  <si>
-    <t>The email suggests restricting the distribution of information to prevent 'partial interpretations circulating,' which indicates an attempt to control the flow of information and avoid leaks. This aligns with secrecy concerns.</t>
-  </si>
-  <si>
-    <t>The email suggests manipulating revenue recognition to smooth volatility, which is a clear violation of financial reporting standards. The phrase 'no one outside finance will notice' indicates intent to conceal the manipulation.</t>
-  </si>
-  <si>
-    <t>The phrase 'No need to attract regulatory attention' suggests an intent to avoid formal processes and regulatory oversight, which could indicate an attempt to conceal potential systemic issues. This aligns with patterns of secrecy observed in past violations.</t>
-  </si>
-  <si>
-    <t>The email suggests altering risk bucket aggregation before publishing exposure numbers, which indicates an attempt to obscure true risk levels. The phrase 'Internally we know where things stand' further implies secrecy and withholding of accurate information.</t>
-  </si>
-  <si>
-    <t>The email explicitly instructs the recipient to avoid saving copies or discussing assumptions, indicating an attempt to control information flow and prevent leaks before an official announcement. This aligns with patterns of secrecy observed in past violations.</t>
-  </si>
-  <si>
-    <t>The phrase suggests potential bribery or inappropriate rewards for discreetly handling the approval process, which aligns with patterns of market bribery seen in past violations.</t>
-  </si>
-  <si>
-    <t>Flag this email for further review by the compliance team to assess whether the delay in disclosure constitutes a breach of transparency regulations.</t>
-  </si>
-  <si>
-    <t>Flag this email for immediate review by the compliance team and investigate the nature of the 'incentives' being discussed.</t>
-  </si>
-  <si>
-    <t>Escalate to the compliance team for further investigation and review of the sender's intent and actions.</t>
-  </si>
-  <si>
-    <t>Investigate the nature of the draft term sheet and verify if the restriction on sharing aligns with company policies. Check for any prior instances of unauthorized sharing.</t>
+    <t>The email suggests withholding information about concentration risk until after a financial action (rebalance) is completed, which could be seen as an attempt to obscure critical details from stakeholders.</t>
+  </si>
+  <si>
+    <t>The email suggests aligning incentives, which could imply bribery or undue influence, especially when combined with the phrase 'Happy to chat offline', indicating secrecy. This aligns with the retrieved context of coded language and urgency.</t>
+  </si>
+  <si>
+    <t>The email suggests delaying distribution of an update to manipulate market conditions, specifically citing thin liquidity and potential outsized reactions. This aligns with market manipulation practices as per compliance guidelines.</t>
+  </si>
+  <si>
+    <t>The email instructs the recipient to restrict sharing of the draft term sheet, indicating potential secrecy or confidentiality concerns. This aligns with the retrieved context of 'Secrecy/Leaks'.</t>
+  </si>
+  <si>
+    <t>The email suggests bypassing formal documentation and transparency by requesting an adjustment without flagging it formally. This raises concerns about secrecy and potential manipulation.</t>
+  </si>
+  <si>
+    <t>The email suggests secrecy and discretion in handling a transaction, which could indicate unethical behavior or bribery. The phrase 'discreetly' and 'No need to involve anyone else' imply an attempt to avoid transparency.</t>
+  </si>
+  <si>
+    <t>The email mentions negative client feedback but suggests avoiding formal documentation, which could be seen as a lack of transparency or accountability. However, there is no direct evidence of fraud or unethical behavior.</t>
+  </si>
+  <si>
+    <t>The email is a routine communication about monthly reconciliation and does not contain any suspicious language or indicators of fraud.</t>
+  </si>
+  <si>
+    <t>The email suggests altering language to potentially mislead or obscure the true risk profile until positions are finalized, which could be seen as an attempt to manipulate market perception.</t>
+  </si>
+  <si>
+    <t>The email suggests altering the language of a research note to temper downside exposure, potentially to manipulate market perception. The phrase 'highlighting it publicly before close could cause unnecessary volatility' indicates an intent to avoid transparency, and 'Let’s align offline before distribution' suggests secrecy in decision-making.</t>
+  </si>
+  <si>
+    <t>The email contains instructions to restrict the circulation of a financial model, indicating potential secrecy or confidentiality concerns. The phrase 'No external circulation yet' suggests an attempt to limit information sharing, which could be a violation if the context involves sensitive or proprietary data.</t>
+  </si>
+  <si>
+    <t>The email suggests secrecy and potential manipulation of incentive arrangements, which could indicate bribery or unethical conduct. The phrases 'helping move this forward quietly' and 'No need to involve others' imply an intent to conceal actions from oversight.</t>
+  </si>
+  <si>
+    <t>The email discusses negative feedback from clients about pricing transparency but suggests delaying formal logging of the complaint. This could be seen as an attempt to avoid addressing the issue promptly, which may lead to compliance concerns if the feedback escalates.</t>
+  </si>
+  <si>
+    <t>The email suggests bypassing formal procedures for a financial adjustment, which could indicate an attempt to conceal or manipulate records. The phrase 'no need to raise this formally' implies secrecy and potential non-compliance.</t>
+  </si>
+  <si>
+    <t>The email discusses sharing a Q2 forecast with senior management, which is standard practice and does not indicate any unethical or fraudulent behavior.</t>
+  </si>
+  <si>
+    <t>The email contains instructions to restrict downloading or sharing, which may indicate an attempt to control sensitive information. This aligns with secrecy or potential leaks.</t>
+  </si>
+  <si>
+    <t>The email suggests altering the language of an analyst note to downplay downside exposure, which could mislead stakeholders and manipulate market perception. The phrase 'Let’s align offline before distribution' indicates an attempt to avoid transparency.</t>
+  </si>
+  <si>
+    <t>The email contains instructions to restrict sharing of a financial model until leadership approval, indicating potential secrecy or leak concerns. The phrase 'No forwarding for now' suggests an attempt to limit dissemination, which could be a violation of transparency policies.</t>
+  </si>
+  <si>
+    <t>The email suggests secrecy and avoidance of documentation, which aligns with potential bribery or unethical conduct. The phrase 'move this through quietly' and 'no need to document anything further' indicate an intent to bypass standard procedures.</t>
+  </si>
+  <si>
+    <t>The email suggests delaying formal logging of complaints about fee transparency, which could be seen as an attempt to avoid addressing potential issues promptly. This may violate compliance standards requiring timely and transparent handling of complaints.</t>
+  </si>
+  <si>
+    <t>The email suggests a deliberate attempt to manipulate records temporarily without formal documentation, which aligns with market manipulation practices. The phrase 'no need to raise this formally' indicates an intent to bypass standard procedures.</t>
+  </si>
+  <si>
+    <t>The email explicitly instructs the recipient to avoid downloading or sharing restricted valuation files, indicating an attempt to limit transparency and potentially conceal sensitive information. This aligns with secrecy or leak concerns.</t>
+  </si>
+  <si>
+    <t>The phrase suggests an intentional adjustment to the exposure section to potentially mislead or manipulate market perception until positions stabilize, which could be seen as market manipulation.</t>
+  </si>
+  <si>
+    <t>The email does not contain any suspicious language or indicators of fraud. It is a routine communication about monthly financial reconciliation.</t>
+  </si>
+  <si>
+    <t>The email suggests withholding information about concentration risk until after a rebalance is complete, which could be seen as an attempt to obscure critical details from stakeholders or regulators.</t>
+  </si>
+  <si>
+    <t>The phrase 'aligning your incentives with the broader performance outcome' suggests potential bribery or undue influence, and 'Happy to chat offline' indicates an attempt to avoid transparency. This aligns with the context of Market Bribery.</t>
+  </si>
+  <si>
+    <t>The email suggests limiting the distribution of information, which could indicate an attempt to control or restrict access to sensitive data. This aligns with secrecy concerns.</t>
+  </si>
+  <si>
+    <t>The email suggests manipulating revenue recognition to smooth volatility, which is unethical and violates financial reporting standards. The phrase 'no one outside finance will notice' indicates intent to conceal the action.</t>
+  </si>
+  <si>
+    <t>The phrase 'No need to attract regulatory attention' suggests an intent to avoid formal processes and regulatory scrutiny, which could indicate an attempt to conceal potential compliance issues. This aligns with secrecy and leaks concerns.</t>
+  </si>
+  <si>
+    <t>The email suggests altering the presentation of risk exposure data before publication, which could mislead stakeholders and conceal the true financial position. The phrase 'Internally we know where things stand' implies intentional secrecy.</t>
+  </si>
+  <si>
+    <t>The email explicitly instructs the recipient to avoid saving or discussing sensitive information, indicating an attempt to control information flow and prevent leaks before an official announcement. This aligns with secrecy concerns.</t>
+  </si>
+  <si>
+    <t>The phrase suggests potential bribery or inappropriate rewards for discreetly handling the approval process, which could violate ethical standards.</t>
+  </si>
+  <si>
+    <t>Flag this email for further review by the compliance team to assess whether withholding this information violates transparency or regulatory requirements.</t>
+  </si>
+  <si>
+    <t>Flag this email for further investigation and escalate to the compliance team for review of potential bribery or unethical conduct.</t>
+  </si>
+  <si>
+    <t>Escalate to compliance team for further investigation and review of the sender's intent and actions.</t>
+  </si>
+  <si>
+    <t>Flag this email for further review to ensure compliance with confidentiality protocols and verify if the restriction aligns with company policies.</t>
   </si>
   <si>
     <t>Escalate to compliance team for immediate review and request clarification from the sender regarding the nature of the adjustment.</t>
   </si>
   <si>
-    <t>Flag this email for immediate review by the compliance team and investigate the transaction mentioned for potential irregularities.</t>
-  </si>
-  <si>
-    <t>Monitor future communications for any escalation or patterns of non-compliance.</t>
-  </si>
-  <si>
-    <t>No further action required as this email does not indicate any compliance risk.</t>
-  </si>
-  <si>
-    <t>Flag this email for further review by a compliance officer to assess potential intent to obscure or delay critical information disclosure.</t>
-  </si>
-  <si>
-    <t>Escalate to the compliance team for immediate review and investigation. Verify if the research note was altered and assess the potential impact on market integrity.</t>
-  </si>
-  <si>
-    <t>Flag this email for further review to ensure compliance with information-sharing policies and verify if the financial model contains sensitive or proprietary data.</t>
-  </si>
-  <si>
-    <t>Escalate to the compliance team for immediate investigation and review of the mentioned transaction and incentive arrangement.</t>
-  </si>
-  <si>
-    <t>Monitor the situation and ensure proper logging if complaints persist or escalate in the next billing cycle.</t>
+    <t>Flag this email for further investigation and review the transaction details mentioned. Check for any irregularities or unethical incentive structures.</t>
+  </si>
+  <si>
+    <t>Monitor the situation and review client feedback in the next reporting cycle to ensure proper documentation and resolution if issues persist.</t>
+  </si>
+  <si>
+    <t>No immediate action required. Mark as routine and archive.</t>
+  </si>
+  <si>
+    <t>Flag this email for further review and consult with legal and compliance teams to assess the intent and implications of the suggested language adjustment.</t>
+  </si>
+  <si>
+    <t>Escalate to compliance team for review of the research note and investigate potential intent to manipulate market perception.</t>
+  </si>
+  <si>
+    <t>Investigate the nature of the financial model and verify if the restriction aligns with company policies on information sharing. Ensure leadership approval is documented.</t>
+  </si>
+  <si>
+    <t>Flag this email for immediate review by the compliance team and investigate the referenced transaction and incentive arrangement.</t>
+  </si>
+  <si>
+    <t>Monitor the situation closely and ensure that any further complaints or feedback are formally logged and addressed in a timely manner.</t>
+  </si>
+  <si>
+    <t>Flag this email for further investigation and escalate to the compliance team for review of the adjustment process.</t>
+  </si>
+  <si>
+    <t>No action required. Mark as compliant and archive.</t>
+  </si>
+  <si>
+    <t>Investigate the folder's contents and verify if the restriction is related to sensitive or confidential data. Monitor for any unauthorized access or sharing.</t>
+  </si>
+  <si>
+    <t>Escalate to compliance team for review of the analyst note and investigate potential intent to mislead stakeholders.</t>
+  </si>
+  <si>
+    <t>Investigate the context of the financial model and verify if the restriction aligns with company policies. Ensure leadership approval is documented and assess if the assumptions are sensitive or confidential.</t>
+  </si>
+  <si>
+    <t>Flag this email for immediate review by the compliance team and investigate the referenced deal and compensation structure.</t>
+  </si>
+  <si>
+    <t>Investigate the complaints mentioned and ensure they are logged formally as per compliance requirements. Review the fee transparency policies to address any underlying issues.</t>
   </si>
   <si>
     <t>Flag this email for immediate review and escalate to the compliance team for further investigation.</t>
   </si>
   <si>
-    <t>No immediate action required. Mark as routine communication.</t>
-  </si>
-  <si>
-    <t>Investigate the contents of the folder mentioned and verify if the information is sensitive or restricted. Check for any unauthorized access or sharing attempts.</t>
-  </si>
-  <si>
-    <t>Escalate to compliance team for immediate review and flag the analyst note for further scrutiny before distribution.</t>
-  </si>
-  <si>
-    <t>Flag this email for further review to ensure compliance with information-sharing policies and verify the legitimacy of the restrictions.</t>
-  </si>
-  <si>
-    <t>Flag this email for immediate review by the compliance team and initiate an investigation into the deal and compensation structure mentioned.</t>
-  </si>
-  <si>
-    <t>Monitor the situation and ensure complaints are logged if they persist or escalate.</t>
-  </si>
-  <si>
-    <t>Flag this email for immediate review and escalate to the compliance team for further investigation into the adjustment request.</t>
-  </si>
-  <si>
-    <t>Flag this email for further investigation and monitor the recipient's actions regarding the restricted files.</t>
-  </si>
-  <si>
-    <t>Flag this email for further review by the compliance team to assess intent and potential impact on transparency.</t>
-  </si>
-  <si>
-    <t>No further action required. Mark as routine communication.</t>
-  </si>
-  <si>
-    <t>Flag this email for further review by the compliance team to assess whether the suggested action violates transparency policies.</t>
-  </si>
-  <si>
-    <t>Investigate the shared folder contents and verify if the restricted distribution aligns with compliance policies. Monitor for any further attempts to limit information flow.</t>
-  </si>
-  <si>
-    <t>Escalate to the compliance team for immediate investigation and review of financial records for irregularities.</t>
-  </si>
-  <si>
-    <t>Recommend escalating this email for further review to ensure compliance with regulatory standards and investigate the underlying fee disclosure issues.</t>
-  </si>
-  <si>
-    <t>Escalate to compliance team for immediate review and investigation into potential data manipulation or concealment of risk exposure.</t>
+    <t>Investigate the nature of the restricted valuation files and the transaction mentioned. Verify compliance with data handling policies and assess if any unauthorized access or sharing has occurred.</t>
+  </si>
+  <si>
+    <t>Flag this email for further review and request clarification on the intent behind softening the exposure section.</t>
+  </si>
+  <si>
+    <t>No action required. Mark as routine communication.</t>
+  </si>
+  <si>
+    <t>Flag this email for further investigation and escalate to the compliance team for review.</t>
+  </si>
+  <si>
+    <t>Investigate the context of the leadership narrative and assess whether the restricted distribution is justified or indicative of potential leaks.</t>
+  </si>
+  <si>
+    <t>Escalate to compliance and audit teams for immediate investigation and review of revenue recognition practices.</t>
+  </si>
+  <si>
+    <t>Escalate to compliance team for further investigation and review of fee disclosure practices.</t>
+  </si>
+  <si>
+    <t>Escalate to compliance team for investigation into potential data manipulation or concealment practices.</t>
   </si>
   <si>
     <t>Flag this email for further investigation and monitor communication channels for potential leaks or unauthorized disclosures.</t>
   </si>
   <si>
-    <t>Flag this email for further investigation and review Harish's approval processes and communications for potential bribery or unethical conduct.</t>
+    <t>Investigate the context of the approval process and monitor for any signs of inappropriate rewards or exchanges.</t>
   </si>
 </sst>
 </file>
@@ -1433,19 +1439,19 @@
         <v>99</v>
       </c>
       <c r="E2" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1465,16 +1471,16 @@
         <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1494,16 +1500,16 @@
         <v>85</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1520,19 +1526,19 @@
         <v>99</v>
       </c>
       <c r="E5" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1552,16 +1558,16 @@
         <v>85</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1575,22 +1581,22 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1">
         <v>85</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1607,19 +1613,19 @@
         <v>102</v>
       </c>
       <c r="E8" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1636,19 +1642,19 @@
         <v>102</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1662,22 +1668,22 @@
         <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1">
         <v>75</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1697,16 +1703,16 @@
         <v>85</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1723,19 +1729,19 @@
         <v>99</v>
       </c>
       <c r="E12" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1755,16 +1761,16 @@
         <v>85</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1784,16 +1790,16 @@
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1813,16 +1819,16 @@
         <v>85</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1836,22 +1842,22 @@
         <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1871,16 +1877,16 @@
         <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1900,16 +1906,16 @@
         <v>85</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1929,16 +1935,16 @@
         <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1952,22 +1958,22 @@
         <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
         <v>85</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1984,19 +1990,19 @@
         <v>102</v>
       </c>
       <c r="E21" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2010,22 +2016,22 @@
         <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E22" s="1">
         <v>85</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2045,16 +2051,16 @@
         <v>85</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2068,22 +2074,22 @@
         <v>89</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E24" s="1">
         <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2103,16 +2109,16 @@
         <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2129,19 +2135,19 @@
         <v>99</v>
       </c>
       <c r="E26" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2161,16 +2167,16 @@
         <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2190,16 +2196,16 @@
         <v>65</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2213,22 +2219,22 @@
         <v>94</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E29" s="1">
         <v>85</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2245,19 +2251,19 @@
         <v>99</v>
       </c>
       <c r="E30" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2277,16 +2283,16 @@
         <v>85</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2306,16 +2312,16 @@
         <v>85</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2335,16 +2341,16 @@
         <v>85</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
